--- a/src/Presentation/CTM.Win/DataTemplate/Delivery/ZhaoShang_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Delivery/ZhaoShang_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepo\CTM\CTM.Win\DataImportTemplate\Delivery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\src\Presentation\CTM.Win\DataTemplate\Delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -980,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -997,74 +997,139 @@
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" t="str">
+        <f>"币种"</f>
+        <v>币种</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"证券名称"</f>
+        <v>证券名称</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"成交日期"</f>
+        <v>成交日期</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"成交价格"</f>
+        <v>成交价格</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"成交数量"</f>
+        <v>成交数量</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"发生金额"</f>
+        <v>发生金额</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"资金余额"</f>
+        <v>资金余额</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"合同编号"</f>
+        <v>合同编号</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"业务名称"</f>
+        <v>业务名称</v>
+      </c>
+      <c r="J1" t="str">
+        <f>"手续费"</f>
+        <v>手续费</v>
+      </c>
+      <c r="K1" t="str">
+        <f>"印花税"</f>
+        <v>印花税</v>
+      </c>
+      <c r="L1" t="str">
+        <f>"过户费"</f>
+        <v>过户费</v>
+      </c>
+      <c r="M1" t="str">
+        <f>"结算费"</f>
+        <v>结算费</v>
+      </c>
+      <c r="N1" t="str">
+        <f>"证券代码"</f>
+        <v>证券代码</v>
+      </c>
+      <c r="O1" t="str">
+        <f>"股东代码"</f>
+        <v>股东代码</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
-        <f>"币种"</f>
-        <v>币种</v>
+        <f t="shared" ref="A2:A7" si="0">"人民币"</f>
+        <v>人民币</v>
       </c>
       <c r="B2" t="str">
-        <f>"证券名称"</f>
-        <v>证券名称</v>
+        <f>"880013"</f>
+        <v>880013</v>
       </c>
       <c r="C2" t="str">
-        <f>"成交日期"</f>
-        <v>成交日期</v>
+        <f>"20160216000016"</f>
+        <v>20160216000016</v>
       </c>
       <c r="D2" t="str">
-        <f>"成交价格"</f>
-        <v>成交价格</v>
+        <f>"0.000"</f>
+        <v>0.000</v>
       </c>
       <c r="E2" t="str">
-        <f>"成交数量"</f>
-        <v>成交数量</v>
+        <f>"0.00"</f>
+        <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <f>"发生金额"</f>
-        <v>发生金额</v>
+        <f>"35.89"</f>
+        <v>35.89</v>
       </c>
       <c r="G2" t="str">
-        <f>"资金余额"</f>
-        <v>资金余额</v>
+        <f>"36.89"</f>
+        <v>36.89</v>
       </c>
       <c r="H2" t="str">
-        <f>"合同编号"</f>
-        <v>合同编号</v>
+        <f>"---"</f>
+        <v>---</v>
       </c>
       <c r="I2" t="str">
-        <f>"业务名称"</f>
-        <v>业务名称</v>
+        <f>"股息入帐(天添利)"</f>
+        <v>股息入帐(天添利)</v>
       </c>
       <c r="J2" t="str">
-        <f>"手续费"</f>
-        <v>手续费</v>
+        <f t="shared" ref="J2:M4" si="1">"---"</f>
+        <v>---</v>
       </c>
       <c r="K2" t="str">
-        <f>"印花税"</f>
-        <v>印花税</v>
+        <f t="shared" si="1"/>
+        <v>---</v>
       </c>
       <c r="L2" t="str">
-        <f>"过户费"</f>
-        <v>过户费</v>
+        <f t="shared" si="1"/>
+        <v>---</v>
       </c>
       <c r="M2" t="str">
-        <f>"结算费"</f>
-        <v>结算费</v>
+        <f t="shared" si="1"/>
+        <v>---</v>
       </c>
       <c r="N2" t="str">
-        <f>"证券代码"</f>
-        <v>证券代码</v>
+        <f>"880013"</f>
+        <v>880013</v>
       </c>
       <c r="O2" t="str">
-        <f>"股东代码"</f>
-        <v>股东代码</v>
+        <f>"980508075198"</f>
+        <v>980508075198</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A8" si="0">"人民币"</f>
+        <f t="shared" si="0"/>
         <v>人民币</v>
       </c>
       <c r="B3" t="str">
@@ -1072,8 +1137,8 @@
         <v>880013</v>
       </c>
       <c r="C3" t="str">
-        <f>"20160216000016"</f>
-        <v>20160216000016</v>
+        <f>"20160309000001"</f>
+        <v>20160309000001</v>
       </c>
       <c r="D3" t="str">
         <f>"0.000"</f>
@@ -1084,12 +1149,12 @@
         <v>0.00</v>
       </c>
       <c r="F3" t="str">
-        <f>"35.89"</f>
-        <v>35.89</v>
+        <f>"0.10"</f>
+        <v>0.10</v>
       </c>
       <c r="G3" t="str">
-        <f>"36.89"</f>
-        <v>36.89</v>
+        <f>"36.99"</f>
+        <v>36.99</v>
       </c>
       <c r="H3" t="str">
         <f>"---"</f>
@@ -1100,7 +1165,7 @@
         <v>股息入帐(天添利)</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:M5" si="1">"---"</f>
+        <f t="shared" si="1"/>
         <v>---</v>
       </c>
       <c r="K3" t="str">
@@ -1133,36 +1198,36 @@
         <v>人民币</v>
       </c>
       <c r="B4" t="str">
-        <f>"880013"</f>
-        <v>880013</v>
+        <f>""</f>
+        <v/>
       </c>
       <c r="C4" t="str">
-        <f>"20160309000001"</f>
-        <v>20160309000001</v>
+        <f>"20160318000002"</f>
+        <v>20160318000002</v>
       </c>
       <c r="D4" t="str">
-        <f>"0.000"</f>
-        <v>0.000</v>
+        <f>"---"</f>
+        <v>---</v>
       </c>
       <c r="E4" t="str">
-        <f>"0.00"</f>
-        <v>0.00</v>
+        <f>"---"</f>
+        <v>---</v>
       </c>
       <c r="F4" t="str">
-        <f>"0.10"</f>
-        <v>0.10</v>
+        <f>"2.16"</f>
+        <v>2.16</v>
       </c>
       <c r="G4" t="str">
-        <f>"36.99"</f>
-        <v>36.99</v>
+        <f>"39.15"</f>
+        <v>39.15</v>
       </c>
       <c r="H4" t="str">
         <f>"---"</f>
         <v>---</v>
       </c>
       <c r="I4" t="str">
-        <f>"股息入帐(天添利)"</f>
-        <v>股息入帐(天添利)</v>
+        <f>"批量利息归本"</f>
+        <v>批量利息归本</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
@@ -1181,79 +1246,79 @@
         <v>---</v>
       </c>
       <c r="N4" t="str">
-        <f>"880013"</f>
-        <v>880013</v>
+        <f>"---"</f>
+        <v>---</v>
       </c>
       <c r="O4" t="str">
-        <f>"980508075198"</f>
-        <v>980508075198</v>
+        <f>"---"</f>
+        <v>---</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" t="str">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>人民币</v>
       </c>
-      <c r="B5" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <f>"20160318000002"</f>
-        <v>20160318000002</v>
-      </c>
-      <c r="D5" t="str">
-        <f>"---"</f>
-        <v>---</v>
-      </c>
-      <c r="E5" t="str">
-        <f>"---"</f>
-        <v>---</v>
-      </c>
-      <c r="F5" t="str">
-        <f>"2.16"</f>
-        <v>2.16</v>
-      </c>
-      <c r="G5" t="str">
-        <f>"39.15"</f>
-        <v>39.15</v>
-      </c>
-      <c r="H5" t="str">
-        <f>"---"</f>
-        <v>---</v>
-      </c>
-      <c r="I5" t="str">
-        <f>"批量利息归本"</f>
-        <v>批量利息归本</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>---</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>---</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>---</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="1"/>
-        <v>---</v>
-      </c>
-      <c r="N5" t="str">
-        <f>"---"</f>
-        <v>---</v>
-      </c>
-      <c r="O5" t="str">
-        <f>"---"</f>
-        <v>---</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="B5" s="1" t="str">
+        <f>"濮耐股份"</f>
+        <v>濮耐股份</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>"20160329000008"</f>
+        <v>20160329000008</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>"6.420"</f>
+        <v>6.420</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>"-6600.00"</f>
+        <v>-6600.00</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>"42316.92"</f>
+        <v>42316.92</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>"42356.07"</f>
+        <v>42356.07</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>"证券卖出(濮耐股份)"</f>
+        <v>证券卖出(濮耐股份)</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>"12.71"</f>
+        <v>12.71</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>"42.37"</f>
+        <v>42.37</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:M7" si="2">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.00</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>"002225"</f>
+        <v>002225</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f>"0055636717"</f>
+        <v>0055636717</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1263,47 +1328,47 @@
         <v>人民币</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>"濮耐股份"</f>
-        <v>濮耐股份</v>
+        <f>"880013"</f>
+        <v>880013</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>"20160329000008"</f>
-        <v>20160329000008</v>
+        <f>"20160329000009"</f>
+        <v>20160329000009</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>"6.420"</f>
-        <v>6.420</v>
+        <f>"1.000"</f>
+        <v>1.000</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>"-6600.00"</f>
-        <v>-6600.00</v>
+        <f>"42355.07"</f>
+        <v>42355.07</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>"42316.92"</f>
-        <v>42316.92</v>
+        <f>"-42355.07"</f>
+        <v>-42355.07</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>"42356.07"</f>
-        <v>42356.07</v>
+        <f>"1.00"</f>
+        <v>1.00</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>""</f>
+        <v/>
       </c>
       <c r="I6" s="1" t="str">
-        <f>"证券卖出(濮耐股份)"</f>
-        <v>证券卖出(濮耐股份)</v>
+        <f>"保证金产品申购(天添利)"</f>
+        <v>保证金产品申购(天添利)</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f>"12.71"</f>
-        <v>12.71</v>
+        <f>"0.00"</f>
+        <v>0.00</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f>"42.37"</f>
-        <v>42.37</v>
+        <f>"0.00"</f>
+        <v>0.00</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f t="shared" ref="L6:M8" si="2">"0.00"</f>
+        <f t="shared" si="2"/>
         <v>0.00</v>
       </c>
       <c r="M6" s="1" t="str">
@@ -1311,15 +1376,15 @@
         <v>0.00</v>
       </c>
       <c r="N6" s="1" t="str">
-        <f>"002225"</f>
-        <v>002225</v>
+        <f>"880013"</f>
+        <v>880013</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>"0055636717"</f>
-        <v>0055636717</v>
+        <f>"980508075198"</f>
+        <v>980508075198</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1328,44 +1393,44 @@
         <v>人民币</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>"880013"</f>
-        <v>880013</v>
+        <f>"濮耐股份"</f>
+        <v>濮耐股份</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>"20160329000009"</f>
-        <v>20160329000009</v>
+        <f>"20160331000021"</f>
+        <v>20160331000021</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>"1.000"</f>
-        <v>1.000</v>
+        <f>"7.120"</f>
+        <v>7.120</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>"42355.07"</f>
-        <v>42355.07</v>
+        <f>"-6600.00"</f>
+        <v>-6600.00</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>"-42355.07"</f>
-        <v>-42355.07</v>
+        <f>"46930.91"</f>
+        <v>46930.91</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>"1.00"</f>
-        <v>1.00</v>
+        <f>"46931.91"</f>
+        <v>46931.91</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>""</f>
-        <v/>
+        <f>"10"</f>
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>"保证金产品申购(天添利)"</f>
-        <v>保证金产品申购(天添利)</v>
+        <f>"证券卖出(濮耐股份)"</f>
+        <v>证券卖出(濮耐股份)</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f>"0.00"</f>
-        <v>0.00</v>
+        <f>"14.10"</f>
+        <v>14.10</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f>"0.00"</f>
-        <v>0.00</v>
+        <f>"46.99"</f>
+        <v>46.99</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1376,79 +1441,14 @@
         <v>0.00</v>
       </c>
       <c r="N7" s="1" t="str">
-        <f>"880013"</f>
-        <v>880013</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f>"980508075198"</f>
-        <v>980508075198</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>人民币</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f>"濮耐股份"</f>
-        <v>濮耐股份</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>"20160331000021"</f>
-        <v>20160331000021</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>"7.120"</f>
-        <v>7.120</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f>"-6600.00"</f>
-        <v>-6600.00</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f>"46930.91"</f>
-        <v>46930.91</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>"46931.91"</f>
-        <v>46931.91</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f>"10"</f>
-        <v>10</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>"证券卖出(濮耐股份)"</f>
-        <v>证券卖出(濮耐股份)</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f>"14.10"</f>
-        <v>14.10</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <f>"46.99"</f>
-        <v>46.99</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0.00</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0.00</v>
-      </c>
-      <c r="N8" s="1" t="str">
         <f>"002225"</f>
         <v>002225</v>
       </c>
-      <c r="O8" s="1" t="str">
+      <c r="O7" s="1" t="str">
         <f>"0055636717"</f>
         <v>0055636717</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
